--- a/data/agricultural_facilities_list/data.xlsx
+++ b/data/agricultural_facilities_list/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -619,16 +619,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>34.212043</v>
+        <v>34.200554</v>
       </c>
       <c r="C5" t="str">
-        <v>134.031391</v>
+        <v>134.038954</v>
       </c>
       <c r="D5" t="str">
-        <v>高松市香川町多目的研修集会施設</v>
+        <v>高松市塩江町高齢者活動促進センター</v>
       </c>
       <c r="E5" t="str">
-        <v>高松市香川町安原下第３号194番地１</v>
+        <v>高松市塩江町安原下第２号1747番地2</v>
       </c>
       <c r="F5" t="str">
         <v>087-839-2422</v>
@@ -643,22 +643,22 @@
         <v>月曜日、祝日、年末年始</v>
       </c>
       <c r="J5" t="str">
-        <v>大集会室</v>
+        <v>大会議室</v>
       </c>
       <c r="K5" t="str">
-        <v>369.2㎡</v>
+        <v>21畳</v>
       </c>
       <c r="L5" t="str">
+        <v>調理実習室</v>
+      </c>
+      <c r="M5" t="str">
+        <v>18.9㎡</v>
+      </c>
+      <c r="N5" t="str">
         <v>研修室</v>
       </c>
-      <c r="M5" t="str">
-        <v>18畳</v>
-      </c>
-      <c r="N5" t="str">
-        <v/>
-      </c>
       <c r="O5" t="str">
-        <v/>
+        <v>97.26㎡</v>
       </c>
       <c r="P5" t="str">
         <v/>
@@ -672,22 +672,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>34.200554</v>
+        <v>34.231951</v>
       </c>
       <c r="C6" t="str">
-        <v>134.038954</v>
+        <v>134.021502</v>
       </c>
       <c r="D6" t="str">
-        <v>高松市塩江町高齢者活動促進センター</v>
+        <v>高松市香南町岡集会所</v>
       </c>
       <c r="E6" t="str">
-        <v>高松市塩江町安原下第２号1747番地2</v>
+        <v>高松市香南町岡605番地３</v>
       </c>
       <c r="F6" t="str">
         <v>087-839-2422</v>
       </c>
       <c r="G6" t="str">
-        <v>09:00</v>
+        <v>08:00</v>
       </c>
       <c r="H6" t="str">
         <v>21:00</v>
@@ -696,22 +696,22 @@
         <v>月曜日、祝日、年末年始</v>
       </c>
       <c r="J6" t="str">
-        <v>大会議室</v>
+        <v>集会室</v>
       </c>
       <c r="K6" t="str">
-        <v>21畳</v>
+        <v>64.8㎡</v>
       </c>
       <c r="L6" t="str">
-        <v>調理実習室</v>
+        <v>調理室</v>
       </c>
       <c r="M6" t="str">
-        <v>18.9㎡</v>
+        <v>16.2㎡</v>
       </c>
       <c r="N6" t="str">
-        <v>研修室</v>
+        <v/>
       </c>
       <c r="O6" t="str">
-        <v>97.26㎡</v>
+        <v/>
       </c>
       <c r="P6" t="str">
         <v/>
@@ -725,16 +725,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>34.231951</v>
+        <v>34.241482</v>
       </c>
       <c r="C7" t="str">
-        <v>134.021502</v>
+        <v>133.999299</v>
       </c>
       <c r="D7" t="str">
-        <v>高松市香南町岡集会所</v>
+        <v>高松市香南町西庄集会所</v>
       </c>
       <c r="E7" t="str">
-        <v>高松市香南町岡605番地３</v>
+        <v>高松市香南町西庄1203番地１</v>
       </c>
       <c r="F7" t="str">
         <v>087-839-2422</v>
@@ -752,19 +752,19 @@
         <v>集会室</v>
       </c>
       <c r="K7" t="str">
-        <v>64.8㎡</v>
+        <v>54㎡</v>
       </c>
       <c r="L7" t="str">
         <v>調理室</v>
       </c>
       <c r="M7" t="str">
-        <v>16.2㎡</v>
+        <v>23㎡</v>
       </c>
       <c r="N7" t="str">
-        <v/>
+        <v>和室</v>
       </c>
       <c r="O7" t="str">
-        <v/>
+        <v>16㎡</v>
       </c>
       <c r="P7" t="str">
         <v/>
@@ -778,16 +778,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>34.241482</v>
+        <v>34.233962</v>
       </c>
       <c r="C8" t="str">
-        <v>133.999299</v>
+        <v>134.010987</v>
       </c>
       <c r="D8" t="str">
-        <v>高松市香南町西庄集会所</v>
+        <v>高松市香南町原集会所</v>
       </c>
       <c r="E8" t="str">
-        <v>高松市香南町西庄1203番地１</v>
+        <v>高松市香南町由佐1687番地１</v>
       </c>
       <c r="F8" t="str">
         <v>087-839-2422</v>
@@ -805,19 +805,19 @@
         <v>集会室</v>
       </c>
       <c r="K8" t="str">
-        <v>54㎡</v>
+        <v>49.5㎡</v>
       </c>
       <c r="L8" t="str">
         <v>調理室</v>
       </c>
       <c r="M8" t="str">
-        <v>23㎡</v>
+        <v>18.35㎡</v>
       </c>
       <c r="N8" t="str">
-        <v>和室</v>
+        <v/>
       </c>
       <c r="O8" t="str">
-        <v>16㎡</v>
+        <v/>
       </c>
       <c r="P8" t="str">
         <v/>
@@ -831,16 +831,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>34.233962</v>
+        <v>34.246112</v>
       </c>
       <c r="C9" t="str">
-        <v>134.010987</v>
+        <v>134.008962</v>
       </c>
       <c r="D9" t="str">
-        <v>高松市香南町原集会所</v>
+        <v>高松市香南町横井集会所</v>
       </c>
       <c r="E9" t="str">
-        <v>高松市香南町由佐1687番地１</v>
+        <v>高松市香南町横井388番地１</v>
       </c>
       <c r="F9" t="str">
         <v>087-839-2422</v>
@@ -858,19 +858,19 @@
         <v>集会室</v>
       </c>
       <c r="K9" t="str">
-        <v>49.5㎡</v>
+        <v>59.3㎡</v>
       </c>
       <c r="L9" t="str">
         <v>調理室</v>
       </c>
       <c r="M9" t="str">
-        <v>18.35㎡</v>
+        <v>23.6㎡</v>
       </c>
       <c r="N9" t="str">
-        <v/>
+        <v>和室</v>
       </c>
       <c r="O9" t="str">
-        <v/>
+        <v>18.76㎡</v>
       </c>
       <c r="P9" t="str">
         <v/>
@@ -884,16 +884,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>34.246112</v>
+        <v>34.255252</v>
       </c>
       <c r="C10" t="str">
-        <v>134.008962</v>
+        <v>134.013184</v>
       </c>
       <c r="D10" t="str">
-        <v>高松市香南町横井集会所</v>
+        <v>高松市香南町吉光研修センター</v>
       </c>
       <c r="E10" t="str">
-        <v>高松市香南町横井388番地１</v>
+        <v>高松市香南町吉光159番地</v>
       </c>
       <c r="F10" t="str">
         <v>087-839-2422</v>
@@ -911,19 +911,19 @@
         <v>集会室</v>
       </c>
       <c r="K10" t="str">
-        <v>59.3㎡</v>
+        <v>56.81㎡</v>
       </c>
       <c r="L10" t="str">
         <v>調理室</v>
       </c>
       <c r="M10" t="str">
-        <v>23.6㎡</v>
+        <v>21.66㎡</v>
       </c>
       <c r="N10" t="str">
         <v>和室</v>
       </c>
       <c r="O10" t="str">
-        <v>18.76㎡</v>
+        <v>18.62㎡</v>
       </c>
       <c r="P10" t="str">
         <v/>
@@ -937,52 +937,52 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>34.255252</v>
+        <v>34.245211</v>
       </c>
       <c r="C11" t="str">
-        <v>134.013184</v>
+        <v>134.00037</v>
       </c>
       <c r="D11" t="str">
-        <v>高松市香南町吉光研修センター</v>
+        <v>高松市香南町池西農村環境改善センター</v>
       </c>
       <c r="E11" t="str">
-        <v>高松市香南町吉光159番地</v>
+        <v>高松市香南町池内522番地1</v>
       </c>
       <c r="F11" t="str">
         <v>087-839-2422</v>
       </c>
       <c r="G11" t="str">
-        <v>08:00</v>
+        <v>09:00</v>
       </c>
       <c r="H11" t="str">
-        <v>21:00</v>
+        <v>22:00</v>
       </c>
       <c r="I11" t="str">
         <v>月曜日、祝日、年末年始</v>
       </c>
       <c r="J11" t="str">
-        <v>集会室</v>
+        <v>多目的ホール</v>
       </c>
       <c r="K11" t="str">
-        <v>56.81㎡</v>
+        <v>192㎡</v>
       </c>
       <c r="L11" t="str">
-        <v>調理室</v>
+        <v>和室会議室</v>
       </c>
       <c r="M11" t="str">
-        <v>21.66㎡</v>
+        <v>63㎡</v>
       </c>
       <c r="N11" t="str">
-        <v>和室</v>
+        <v>調理実習室</v>
       </c>
       <c r="O11" t="str">
-        <v>18.62㎡</v>
+        <v>54㎡</v>
       </c>
       <c r="P11" t="str">
-        <v/>
+        <v>農事研修室</v>
       </c>
       <c r="Q11" t="str">
-        <v/>
+        <v>99㎡</v>
       </c>
     </row>
     <row r="12">
@@ -990,16 +990,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>34.245211</v>
+        <v>34.240298</v>
       </c>
       <c r="C12" t="str">
-        <v>134.00037</v>
+        <v>134.018974</v>
       </c>
       <c r="D12" t="str">
-        <v>高松市香南町池西農村環境改善センター</v>
+        <v>高松市香南町由佐農村環境改善センター</v>
       </c>
       <c r="E12" t="str">
-        <v>高松市香南町池内522番地1</v>
+        <v>高松市香南町由佐357番地2</v>
       </c>
       <c r="F12" t="str">
         <v>087-839-2422</v>
@@ -1017,83 +1017,30 @@
         <v>多目的ホール</v>
       </c>
       <c r="K12" t="str">
-        <v>192㎡</v>
+        <v>218.48㎡</v>
       </c>
       <c r="L12" t="str">
-        <v>和室会議室</v>
+        <v>第1研修室</v>
       </c>
       <c r="M12" t="str">
-        <v>63㎡</v>
+        <v>53.81㎡</v>
       </c>
       <c r="N12" t="str">
+        <v>第2研修室</v>
+      </c>
+      <c r="O12" t="str">
+        <v>53.82㎡</v>
+      </c>
+      <c r="P12" t="str">
         <v>調理実習室</v>
       </c>
-      <c r="O12" t="str">
-        <v>54㎡</v>
-      </c>
-      <c r="P12" t="str">
-        <v>農事研修室</v>
-      </c>
       <c r="Q12" t="str">
-        <v>99㎡</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>12</v>
-      </c>
-      <c r="B13" t="str">
-        <v>34.240298</v>
-      </c>
-      <c r="C13" t="str">
-        <v>134.018974</v>
-      </c>
-      <c r="D13" t="str">
-        <v>高松市香南町由佐農村環境改善センター</v>
-      </c>
-      <c r="E13" t="str">
-        <v>高松市香南町由佐357番地2</v>
-      </c>
-      <c r="F13" t="str">
-        <v>087-839-2422</v>
-      </c>
-      <c r="G13" t="str">
-        <v>09:00</v>
-      </c>
-      <c r="H13" t="str">
-        <v>22:00</v>
-      </c>
-      <c r="I13" t="str">
-        <v>月曜日、祝日、年末年始</v>
-      </c>
-      <c r="J13" t="str">
-        <v>多目的ホール</v>
-      </c>
-      <c r="K13" t="str">
-        <v>218.48㎡</v>
-      </c>
-      <c r="L13" t="str">
-        <v>第1研修室</v>
-      </c>
-      <c r="M13" t="str">
-        <v>53.81㎡</v>
-      </c>
-      <c r="N13" t="str">
-        <v>第2研修室</v>
-      </c>
-      <c r="O13" t="str">
-        <v>53.82㎡</v>
-      </c>
-      <c r="P13" t="str">
-        <v>調理実習室</v>
-      </c>
-      <c r="Q13" t="str">
         <v>59.42㎡</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q12"/>
   </ignoredErrors>
 </worksheet>
 </file>